--- a/public/files_example/example.xlsx
+++ b/public/files_example/example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ilhamserbaguna/Public/azura/scrapper_app/scrapper-lpse/public/files_example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3A2C19-BC78-9F4A-A3FE-595C52C1BA6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224732B3-F7E3-CE4A-B5DD-6DAB4E24F109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{A6CEE87E-8DE5-B74C-89C3-85AC92818E20}"/>
+    <workbookView xWindow="10280" yWindow="2840" windowWidth="28040" windowHeight="17440" xr2:uid="{A6CEE87E-8DE5-B74C-89C3-85AC92818E20}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>from</t>
   </si>
@@ -43,22 +43,40 @@
     <t>url</t>
   </si>
   <si>
-    <t>https://lpse.brin.go.id/eproc4/</t>
-  </si>
-  <si>
-    <t>https://lpse.bnn.go.id/eproc4/</t>
-  </si>
-  <si>
-    <t>https://lpse.kpu.go.id/eproc4/</t>
-  </si>
-  <si>
-    <t>brin</t>
-  </si>
-  <si>
-    <t>bnn</t>
-  </si>
-  <si>
-    <t>kpu</t>
+    <t>https://lpse.kemendagri.go.id/eproc4</t>
+  </si>
+  <si>
+    <t>https://lpse.kemenkumham.go.id/eproc4</t>
+  </si>
+  <si>
+    <t>https://lpse.kemenkopukm.go.id/eproc4</t>
+  </si>
+  <si>
+    <t>https://lpse.kemenparekraf.go.id/eproc4</t>
+  </si>
+  <si>
+    <t>https://lpse.kemlu.go.id/eproc4</t>
+  </si>
+  <si>
+    <t>https://lpse.kemenag.go.id/eproc4</t>
+  </si>
+  <si>
+    <t>kemendagri</t>
+  </si>
+  <si>
+    <t>kemenkumham</t>
+  </si>
+  <si>
+    <t>kemenkopukm</t>
+  </si>
+  <si>
+    <t>kemenparekraf</t>
+  </si>
+  <si>
+    <t>kemlu</t>
+  </si>
+  <si>
+    <t>kemenag</t>
   </si>
 </sst>
 </file>
@@ -420,7 +438,7 @@
   <dimension ref="A1:B74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -435,7 +453,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -443,7 +461,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -451,20 +469,35 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B5" s="1"/>
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B6" s="1"/>
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B7" s="1"/>
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B8" s="1"/>
